--- a/medicine/Enfance/Claire_Heyman/Claire_Heyman.xlsx
+++ b/medicine/Enfance/Claire_Heyman/Claire_Heyman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Heyman (Roubaix, 4 octobre 1902 - Paris 12e, 12 mai 1997[1]) est une résistante[2], assistante sociale juive[3] de l'hôpital Rothschild qui durant la Seconde Guerre mondiale sauve de nombreux enfants juifs hospitalisés dans cet établissement.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Heyman (Roubaix, 4 octobre 1902 - Paris 12e, 12 mai 1997) est une résistante, assistante sociale juive de l'hôpital Rothschild qui durant la Seconde Guerre mondiale sauve de nombreux enfants juifs hospitalisés dans cet établissement.
 </t>
         </is>
       </c>
@@ -511,14 +523,12 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Heyman est née le 4 octobre 1902 à Roubaix. 
-Elle devient assistance sociale en 1932[4] à l'hôpital Rothschild.
-Hôpital Rothschild
-Durant la Seconde Guerre mondiale, Claire Heyman organise le sauvetage de nombreux enfants Juifs hospitalisés à l'hôpital Rothschild, avec l'aide en particulier de la pédiatre Colette Brull-Ulmann[5],[6],[7],[8].
-Réseau de la Résistance
-Elle intègre par la suite le réseau PLUTUS[2].
+Elle devient assistance sociale en 1932 à l'hôpital Rothschild.
 </t>
         </is>
       </c>
@@ -544,12 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Honneurs</t>
+          <t>Éléments biographiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Médaille de la Résistance française décernée par décret du 31 mars 1947[9].</t>
+          <t>Hôpital Rothschild</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la Seconde Guerre mondiale, Claire Heyman organise le sauvetage de nombreux enfants Juifs hospitalisés à l'hôpital Rothschild, avec l'aide en particulier de la pédiatre Colette Brull-Ulmann.
+</t>
         </is>
       </c>
     </row>
@@ -574,12 +591,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réseau de la Résistance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle intègre par la suite le réseau PLUTUS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claire_Heyman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Heyman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Médaille de la Résistance française décernée par décret du 31 mars 1947.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claire_Heyman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Heyman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parvis Claire-Heyman-et-Maria-Errazuriz à l'hôpital Rothschild, angle de la rue Santerre et de la rue de Picpus dans le 12e arrondissement de Paris[10],[11],[12],[13],[14],[15],[16],[17].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Parvis Claire-Heyman-et-Maria-Errazuriz à l'hôpital Rothschild, angle de la rue Santerre et de la rue de Picpus dans le 12e arrondissement de Paris.</t>
         </is>
       </c>
     </row>
